--- a/DeliverableDocuments/SprintCharts.xlsx
+++ b/DeliverableDocuments/SprintCharts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/himajachandaluri/SJSU/Spring 2021/CMPE 202/ProjectFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/himajachandaluri/SJSU/Spring 2021/CMPE 202/ProjectFiles/team-project-team6/DeliverableDocuments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984DCBD8-92D8-A640-A807-8406979DBDEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BC708E-39D2-FA45-9B74-C6CCAB1104AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="500" windowWidth="36120" windowHeight="22100" activeTab="3" xr2:uid="{C2C8D0CF-24FD-EF4A-B5D1-093590A1927D}"/>
   </bookViews>
@@ -8491,16 +8491,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>825500</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4610100</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8538,10 +8538,10 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8579,10 +8579,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8910,7 +8910,7 @@
   <dimension ref="A2:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -9204,7 +9204,7 @@
   <dimension ref="A2:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -9540,7 +9540,7 @@
   <dimension ref="A2:Q55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -9867,7 +9867,7 @@
   <dimension ref="A2:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
